--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/10/seed4/result_data_KNN.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.012</v>
+        <v>6.228</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.868</v>
+        <v>-20.912</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.398</v>
+        <v>-21.825</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.398</v>
+        <v>-21.738</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
